--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H2">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.06854043302544444</v>
+        <v>0.1283736748426667</v>
       </c>
       <c r="R2">
-        <v>0.616863897229</v>
+        <v>1.155363073584</v>
       </c>
       <c r="S2">
-        <v>0.005197186481760878</v>
+        <v>0.011495617875309</v>
       </c>
       <c r="T2">
-        <v>0.005197186481760878</v>
+        <v>0.011495617875309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H3">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.1981999650787777</v>
+        <v>1.321296205407555</v>
       </c>
       <c r="R3">
-        <v>1.783799685709</v>
+        <v>11.891665848668</v>
       </c>
       <c r="S3">
-        <v>0.01502882508504873</v>
+        <v>0.1183195565296129</v>
       </c>
       <c r="T3">
-        <v>0.01502882508504873</v>
+        <v>0.1183195565296129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H4">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.05633646425100001</v>
+        <v>0.1362247541551111</v>
       </c>
       <c r="R4">
-        <v>0.507028178259</v>
+        <v>1.226022787396</v>
       </c>
       <c r="S4">
-        <v>0.004271801293213431</v>
+        <v>0.01219866706195274</v>
       </c>
       <c r="T4">
-        <v>0.004271801293213432</v>
+        <v>0.01219866706195274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H5">
         <v>16.347287</v>
       </c>
       <c r="I5">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J5">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>2.058285089804778</v>
+        <v>0.5782798285293332</v>
       </c>
       <c r="R5">
-        <v>18.524565808243</v>
+        <v>5.204518456763999</v>
       </c>
       <c r="S5">
-        <v>0.1560727146321381</v>
+        <v>0.05178385632350051</v>
       </c>
       <c r="T5">
-        <v>0.1560727146321381</v>
+        <v>0.05178385632350052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H6">
         <v>16.347287</v>
       </c>
       <c r="I6">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J6">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,22 +812,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>5.951990889378112</v>
+        <v>5.951990889378109</v>
       </c>
       <c r="R6">
-        <v>53.567918004403</v>
+        <v>53.56791800440299</v>
       </c>
       <c r="S6">
-        <v>0.4513191006300801</v>
+        <v>0.5329894384145993</v>
       </c>
       <c r="T6">
-        <v>0.4513191006300801</v>
+        <v>0.5329894384145994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H7">
         <v>16.347287</v>
       </c>
       <c r="I7">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J7">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>1.691797078917</v>
+        <v>0.6136462757712221</v>
       </c>
       <c r="R7">
-        <v>15.226173710253</v>
+        <v>5.522816481941</v>
       </c>
       <c r="S7">
-        <v>0.1282831829376666</v>
+        <v>0.05495085425822743</v>
       </c>
       <c r="T7">
-        <v>0.1282831829376666</v>
+        <v>0.05495085425822744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H8">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I8">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J8">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>0.0988799316718889</v>
+        <v>0.05356265765733333</v>
       </c>
       <c r="R8">
-        <v>0.889919385047</v>
+        <v>0.4820639189159999</v>
       </c>
       <c r="S8">
-        <v>0.007497726838285436</v>
+        <v>0.004796433891678618</v>
       </c>
       <c r="T8">
-        <v>0.007497726838285436</v>
+        <v>0.004796433891678618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H9">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I9">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J9">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +998,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>0.2859333992985555</v>
+        <v>0.551297891884111</v>
       </c>
       <c r="R9">
-        <v>2.573400593687</v>
+        <v>4.961681026957</v>
       </c>
       <c r="S9">
-        <v>0.0216813511663505</v>
+        <v>0.04936767533008878</v>
       </c>
       <c r="T9">
-        <v>0.0216813511663505</v>
+        <v>0.04936767533008878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1039,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H10">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I10">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J10">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>0.08127386259300001</v>
+        <v>0.05683844355322221</v>
       </c>
       <c r="R10">
-        <v>0.7314647633370001</v>
+        <v>0.511545991979</v>
       </c>
       <c r="S10">
-        <v>0.006162718870364064</v>
+        <v>0.005089774274328079</v>
       </c>
       <c r="T10">
-        <v>0.006162718870364064</v>
+        <v>0.00508977427432808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1101,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H11">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I11">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J11">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N11">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q11">
-        <v>0.297140286824</v>
+        <v>0.1249412355613333</v>
       </c>
       <c r="R11">
-        <v>2.674262581415999</v>
+        <v>1.124471120052</v>
       </c>
       <c r="S11">
-        <v>0.0225311310959321</v>
+        <v>0.01118824948060683</v>
       </c>
       <c r="T11">
-        <v>0.0225311310959321</v>
+        <v>0.01118824948060683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1145,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H12">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I12">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J12">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1184,22 @@
         <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P12">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q12">
-        <v>0.8592474817039999</v>
+        <v>1.285967552525444</v>
       </c>
       <c r="R12">
-        <v>7.733227335335998</v>
+        <v>11.573707972729</v>
       </c>
       <c r="S12">
-        <v>0.06515379607743801</v>
+        <v>0.1151559430077602</v>
       </c>
       <c r="T12">
-        <v>0.06515379607743803</v>
+        <v>0.1151559430077602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H13">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I13">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J13">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N13">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q13">
-        <v>0.244232964504</v>
+        <v>0.1325823936958889</v>
       </c>
       <c r="R13">
-        <v>2.198096680536</v>
+        <v>1.193241543263</v>
       </c>
       <c r="S13">
-        <v>0.01851934990036259</v>
+        <v>0.01187250062592393</v>
       </c>
       <c r="T13">
-        <v>0.01851934990036259</v>
+        <v>0.01187250062592393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1269,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H14">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I14">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J14">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N14">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q14">
-        <v>0.06341904829488888</v>
+        <v>0.018794454276</v>
       </c>
       <c r="R14">
-        <v>0.5707714346539999</v>
+        <v>0.169150088484</v>
       </c>
       <c r="S14">
-        <v>0.004808849403708585</v>
+        <v>0.001683007554287562</v>
       </c>
       <c r="T14">
-        <v>0.004808849403708586</v>
+        <v>0.001683007554287562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1331,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H15">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I15">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J15">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1370,22 @@
         <v>3.276869</v>
       </c>
       <c r="O15">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P15">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q15">
-        <v>0.1833903376815555</v>
+        <v>0.193443407677</v>
       </c>
       <c r="R15">
-        <v>1.650513039134</v>
+        <v>1.740990669093</v>
       </c>
       <c r="S15">
-        <v>0.01390586172004948</v>
+        <v>0.01732248841421585</v>
       </c>
       <c r="T15">
-        <v>0.01390586172004948</v>
+        <v>0.01732248841421585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1393,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1411,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H16">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I16">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J16">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N16">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q16">
-        <v>0.052126967826</v>
+        <v>0.019943885819</v>
       </c>
       <c r="R16">
-        <v>0.469142710434</v>
+        <v>0.179494972371</v>
       </c>
       <c r="S16">
-        <v>0.003952609584767278</v>
+        <v>0.001785936957908274</v>
       </c>
       <c r="T16">
-        <v>0.003952609584767279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.680199</v>
-      </c>
-      <c r="I17">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J17">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.3777296666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.133189</v>
-      </c>
-      <c r="O17">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="P17">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="Q17">
-        <v>0.2115536694012222</v>
-      </c>
-      <c r="R17">
-        <v>1.903983024611</v>
-      </c>
-      <c r="S17">
-        <v>0.0160413907856517</v>
-      </c>
-      <c r="T17">
-        <v>0.0160413907856517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.680199</v>
-      </c>
-      <c r="I18">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J18">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.092289666666667</v>
-      </c>
-      <c r="N18">
-        <v>3.276869</v>
-      </c>
-      <c r="O18">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="P18">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="Q18">
-        <v>0.6117546685478888</v>
-      </c>
-      <c r="R18">
-        <v>5.505792016931</v>
-      </c>
-      <c r="S18">
-        <v>0.04638726300942535</v>
-      </c>
-      <c r="T18">
-        <v>0.04638726300942535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.680199</v>
-      </c>
-      <c r="I19">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J19">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3104730000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.9314190000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="P19">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="Q19">
-        <v>0.173885474709</v>
-      </c>
-      <c r="R19">
-        <v>1.564969272381</v>
-      </c>
-      <c r="S19">
-        <v>0.01318514048775705</v>
-      </c>
-      <c r="T19">
-        <v>0.01318514048775705</v>
+        <v>0.001785936957908274</v>
       </c>
     </row>
   </sheetData>
